--- a/Planilhas/lotericas_controle.xlsx
+++ b/Planilhas/lotericas_controle.xlsx
@@ -756,11 +756,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
+      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="25.42578125" defaultRowHeight="15"/>
@@ -786,8 +786,8 @@
     <col bestFit="1" customWidth="1" max="19" min="19" style="38" width="51.5703125"/>
     <col customWidth="1" max="20" min="20" style="63" width="173.7109375"/>
     <col bestFit="1" customWidth="1" max="21" min="21" style="63" width="57.5703125"/>
-    <col customWidth="1" max="22" min="22" style="63" width="25.42578125"/>
-    <col customWidth="1" max="16384" min="23" style="63" width="25.42578125"/>
+    <col customWidth="1" max="24" min="22" style="63" width="25.42578125"/>
+    <col customWidth="1" max="16384" min="25" style="63" width="25.42578125"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="30" r="1" s="15">
@@ -818,7 +818,7 @@
       </c>
       <c r="F1" s="57" t="inlineStr">
         <is>
-          <t>NOME FANTASIA</t>
+          <t>NOME_FANTASIA</t>
         </is>
       </c>
       <c r="G1" s="57" t="inlineStr">
@@ -894,47 +894,67 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06075328000153</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R SANTOS PINT</t>
+          <t>RUA NOSSA SRA DAS GRACAS 103</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ROCA SALES</t>
+          <t>SAPUCAIA DO SUL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ARY ACHILES GUGEL &amp; CIA LTDA</t>
+          <t>AGENCIA LOTERICA FEDERAL LTDA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LOTERICA FEDERAL</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18-014759-5</t>
+          <t>18-017748-6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PAE 0845598</t>
+          <t>PAE 0836997</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PAE 0837113</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>PAE 0837249</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>99.247.59.113</t>
+          <t>99.247.145.65</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>99.247.59.113</t>
+          <t>99.247.145.65</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>99.247.59.114</t>
+          <t>99.247.145.66</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -946,12 +966,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07288489000198</t>
+          <t>89389316000120</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R 24 DE OUTUBRO 895</t>
+          <t>RUA OLAVO BILAC 1392</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -959,50 +979,335 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>MONTENEGRO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>THEISEN &amp; CIA LTDA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>THEISEN &amp; CIA LTDA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>18-004192-4</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PAE 0836982</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>PAE 0837092</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PAE 0837264</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>99.244.123.1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>10.33.41.130</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>99.244.123.2</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>255.255.255.240</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>04476892000152</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AV PRESIDENTE VARGAS 1882</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ESTEIO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LOTÉRICA ESTEIO LTDA - ME</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LOTERICA ESTEIO</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>18-013822-7</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PAE 0838236</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>PAE 0838284</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PAE 0838257</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>99.245.255.225</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>10.33.127.250</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>99.245.255.226</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>255.255.255.240</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>05373180000170</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AV ASSIS BRASIL 6444</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>PORTO ALEGRE</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>GEANETE CLAIR DRUM MUNDSTOCK E</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>18-018364-8</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PAE 0836998</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>PAE 0837098</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>PAE 0837250</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>99.244.255.65</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>10.33.63.210</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>99.244.255.66</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>J C GUERREIRO E CIA LTDA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ASSIS BRASIL LOTERIAS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>18-015480-0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PAE 0838237</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>PAE 0838271</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PAE 0838258</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>99.246.164.65</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>10.33.207.106</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>99.246.164.66</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>255.255.255.240</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05221534000161</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AV PRESIDENTE VARGAS 2384</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ESTEIO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BR LOTERIAS LTDA - ME</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LOTERICA TREVO</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>18-015103-7</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>PAE 0839296</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PAE 0839329</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PAE 0839354</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>99.245.255.241</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>10.33.127.254</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>99.245.255.242</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>255.255.255.240</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04204361000100</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RUA OTAVIANO SILVEIRA 75</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SAPUCAIA DO SUL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RJLM - LOTERIAS LTDA.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LOTERICA MINA DE OURO</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>18-012577-0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>PAE 0836985</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>PAE 0837095</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PAE 0837246</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>99.244.17.65</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>10.33.38.82</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>99.244.17.66</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>255.255.255.240</t>
         </is>
@@ -1054,8 +1359,8 @@
     <col bestFit="1" customWidth="1" max="21" min="21" style="63" width="17.7109375"/>
     <col bestFit="1" customWidth="1" max="22" min="22" style="63" width="79.85546875"/>
     <col bestFit="1" customWidth="1" max="23" min="23" style="63" width="26.5703125"/>
-    <col customWidth="1" max="24" min="24" style="63" width="9.140625"/>
-    <col customWidth="1" max="16384" min="25" style="63" width="9.140625"/>
+    <col customWidth="1" max="26" min="24" style="63" width="9.140625"/>
+    <col customWidth="1" max="16384" min="27" style="63" width="9.140625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="30" r="1" s="63">
@@ -3185,9 +3490,8 @@
     <col bestFit="1" customWidth="1" max="10" min="10" style="63" width="39.85546875"/>
     <col bestFit="1" customWidth="1" max="11" min="11" style="63" width="15.28515625"/>
     <col bestFit="1" customWidth="1" max="13" min="12" style="63" width="10.42578125"/>
-    <col customWidth="1" max="14" min="14" style="63" width="9.140625"/>
-    <col customWidth="1" max="15" min="15" style="63" width="9.140625"/>
-    <col customWidth="1" max="16384" min="16" style="63" width="9.140625"/>
+    <col customWidth="1" max="17" min="14" style="63" width="9.140625"/>
+    <col customWidth="1" max="16384" min="18" style="63" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Planilhas/lotericas_controle.xlsx
+++ b/Planilhas/lotericas_controle.xlsx
@@ -508,7 +508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,7 +543,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,11 +756,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
+      <selection activeCell="B7" pane="bottomLeft" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="25.42578125" defaultRowHeight="15"/>
@@ -769,7 +769,7 @@
     <col bestFit="1" customWidth="1" max="2" min="2" style="63" width="45.85546875"/>
     <col bestFit="1" customWidth="1" max="3" min="3" style="30" width="15.28515625"/>
     <col bestFit="1" customWidth="1" max="4" min="4" style="63" width="29.42578125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="63" width="38.28515625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="63" width="40.5703125"/>
     <col bestFit="1" customWidth="1" max="6" min="6" style="63" width="33.85546875"/>
     <col bestFit="1" customWidth="1" max="7" min="7" style="30" width="12"/>
     <col bestFit="1" customWidth="1" max="8" min="8" style="30" width="11.85546875"/>
@@ -783,11 +783,11 @@
     <col bestFit="1" customWidth="1" max="16" min="16" style="30" width="20.140625"/>
     <col bestFit="1" customWidth="1" max="17" min="17" style="37" width="15.7109375"/>
     <col bestFit="1" customWidth="1" max="18" min="18" style="37" width="21.140625"/>
-    <col bestFit="1" customWidth="1" max="19" min="19" style="38" width="51.5703125"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" style="38" width="67.5703125"/>
     <col customWidth="1" max="20" min="20" style="63" width="173.7109375"/>
     <col bestFit="1" customWidth="1" max="21" min="21" style="63" width="57.5703125"/>
-    <col customWidth="1" max="24" min="22" style="63" width="25.42578125"/>
-    <col customWidth="1" max="16384" min="25" style="63" width="25.42578125"/>
+    <col customWidth="1" max="29" min="22" style="63" width="25.42578125"/>
+    <col customWidth="1" max="16384" min="30" style="63" width="25.42578125"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="30" r="1" s="15">
@@ -818,7 +818,7 @@
       </c>
       <c r="F1" s="57" t="inlineStr">
         <is>
-          <t>NOME_FANTASIA</t>
+          <t>NOME FANTASIA</t>
         </is>
       </c>
       <c r="G1" s="57" t="inlineStr">
@@ -887,91 +887,77 @@
           <t>Nome</t>
         </is>
       </c>
-      <c r="T1" s="14" t="inlineStr">
-        <is>
-          <t>OBS</t>
-        </is>
-      </c>
+      <c r="T1" s="14" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06075328000153</t>
+          <t>11098218000147</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RUA NOSSA SRA DAS GRACAS 103</t>
+          <t>AV PARAGUASSU 1338</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SAPUCAIA DO SUL</t>
+          <t>IMBE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AGENCIA LOTERICA FEDERAL LTDA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>LOTERICA FEDERAL</t>
+          <t>I S FERNANDES &amp; CIA LTDA ME</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18-017748-6</t>
+          <t>18-020136-0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PAE 0836997</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>PAE 0837113</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>PAE 0837249</t>
+          <t>PAE 0839270</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>99.247.145.65</t>
+          <t>99.246.94.1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>99.247.145.65</t>
+          <t>99.246.94.1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>99.247.145.66</t>
+          <t>99.246.94.2</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>255.255.255.240</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>10.65.179.99</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>89389316000120</t>
+          <t>07354722000193</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RUA OLAVO BILAC 1392</t>
+          <t>AV FLORES DA CUNHA 865</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -979,122 +965,97 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>CACHOEIRINHA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>THEISEN &amp; CIA LTDA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>THEISEN &amp; CIA LTDA</t>
+          <t>LOTERICA DE VICENTE LTDA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18-004192-4</t>
+          <t>18-018392-3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PAE 0836982</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>PAE 0837092</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>PAE 0837264</t>
+          <t>PAE 0837001</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>99.244.123.1</t>
+          <t>99.245.174.65</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>10.33.41.130</t>
+          <t>10.33.107.146</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>99.244.123.2</t>
+          <t>99.245.174.66</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>255.255.255.240</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10.65.176.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04476892000152</t>
+          <t>11545317000120</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AV PRESIDENTE VARGAS 1882</t>
+          <t>AV PRAIA DE BELAS 1181</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ESTEIO</t>
+          <t>PORTO ALEGRE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LOTÉRICA ESTEIO LTDA - ME</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LOTERICA ESTEIO</t>
+          <t>PORTAL DA SORTE LOTERIAS LTDA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18-013822-7</t>
+          <t>18-020359-2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>PAE 0838236</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>PAE 0838284</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>PAE 0838257</t>
+          <t>PAE 0838723</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>99.245.255.225</t>
+          <t>99.244.184.97</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>10.33.127.250</t>
+          <t>99.244.110.22</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>99.245.255.226</t>
+          <t>99.244.184.98</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1102,221 +1063,16 @@
           <t>255.255.255.240</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05373180000170</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AV ASSIS BRASIL 6444</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PORTO ALEGRE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>J C GUERREIRO E CIA LTDA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ASSIS BRASIL LOTERIAS</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>18-015480-0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PAE 0838237</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>PAE 0838271</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>PAE 0838258</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>99.246.164.65</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>10.33.207.106</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>99.246.164.66</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>255.255.255.240</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05221534000161</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AV PRESIDENTE VARGAS 2384</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ESTEIO</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BR LOTERIAS LTDA - ME</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>LOTERICA TREVO</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>18-015103-7</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PAE 0839296</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>PAE 0839329</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>PAE 0839354</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>99.245.255.241</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>10.33.127.254</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>99.245.255.242</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>255.255.255.240</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>04204361000100</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>RUA OTAVIANO SILVEIRA 75</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SAPUCAIA DO SUL</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>RJLM - LOTERIAS LTDA.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>LOTERICA MINA DE OURO</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>18-012577-0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PAE 0836985</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>PAE 0837095</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>PAE 0837246</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>99.244.17.65</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>10.33.38.82</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>99.244.17.66</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>255.255.255.240</t>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>10.65.178.169</t>
         </is>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T1">
-    <sortState ref="A2:T353">
-      <sortCondition ref="Q1:Q330"/>
+    <sortState ref="A2:T523">
+      <sortCondition ref="Q1:Q459"/>
     </sortState>
   </autoFilter>
   <pageMargins bottom="0.787401575" footer="0.31496062" header="0.31496062" left="0.511811024" right="0.511811024" top="0.787401575"/>
@@ -1332,8 +1088,8 @@
   </sheetPr>
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1359,8 +1115,8 @@
     <col bestFit="1" customWidth="1" max="21" min="21" style="63" width="17.7109375"/>
     <col bestFit="1" customWidth="1" max="22" min="22" style="63" width="79.85546875"/>
     <col bestFit="1" customWidth="1" max="23" min="23" style="63" width="26.5703125"/>
-    <col customWidth="1" max="26" min="24" style="63" width="9.140625"/>
-    <col customWidth="1" max="16384" min="27" style="63" width="9.140625"/>
+    <col customWidth="1" max="31" min="24" style="63" width="9.140625"/>
+    <col customWidth="1" max="16384" min="32" style="63" width="9.140625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="30" r="1" s="63">
@@ -3490,8 +3246,8 @@
     <col bestFit="1" customWidth="1" max="10" min="10" style="63" width="39.85546875"/>
     <col bestFit="1" customWidth="1" max="11" min="11" style="63" width="15.28515625"/>
     <col bestFit="1" customWidth="1" max="13" min="12" style="63" width="10.42578125"/>
-    <col customWidth="1" max="17" min="14" style="63" width="9.140625"/>
-    <col customWidth="1" max="16384" min="18" style="63" width="9.140625"/>
+    <col customWidth="1" max="22" min="14" style="63" width="9.140625"/>
+    <col customWidth="1" max="16384" min="23" style="63" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4603,8 +4359,8 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A14" pane="bottomLeft" sqref="A14:C14"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A21" ySplit="1"/>
+      <selection activeCell="A51" pane="bottomLeft" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
